--- a/Code/Results/Cases/Case_1_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_203/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.233183387756744</v>
+        <v>7.86724192799219</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.920315010423976</v>
+        <v>4.612663642908414</v>
       </c>
       <c r="E2">
-        <v>6.182871146372324</v>
+        <v>10.70358358851053</v>
       </c>
       <c r="F2">
-        <v>42.18718199358609</v>
+        <v>52.19851471137271</v>
       </c>
       <c r="G2">
-        <v>2.124436380949025</v>
+        <v>3.763626178778753</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.881738705236756</v>
+        <v>10.03118505128965</v>
       </c>
       <c r="K2">
-        <v>19.8222059150339</v>
+        <v>20.55611068277238</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.62164971912176</v>
+        <v>20.4905080802847</v>
       </c>
       <c r="N2">
-        <v>16.04711146873329</v>
+        <v>23.3986823768665</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.876866839309772</v>
+        <v>7.800049692867613</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.886603939417363</v>
+        <v>4.615628859511509</v>
       </c>
       <c r="E3">
-        <v>6.131664916240123</v>
+        <v>10.72028624106469</v>
       </c>
       <c r="F3">
-        <v>40.91252000623068</v>
+        <v>52.07622248718422</v>
       </c>
       <c r="G3">
-        <v>2.13574888427494</v>
+        <v>3.76761716080528</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.898510400368987</v>
+        <v>10.05121168611236</v>
       </c>
       <c r="K3">
-        <v>18.66854374862531</v>
+        <v>20.35511994747449</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.95547097441562</v>
+        <v>20.43403655097899</v>
       </c>
       <c r="N3">
-        <v>16.20970329504581</v>
+        <v>23.44639330031144</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.652612401091713</v>
+        <v>7.760411822498218</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.86648653909799</v>
+        <v>4.617747346421424</v>
       </c>
       <c r="E4">
-        <v>6.103049030413014</v>
+        <v>10.73190675883346</v>
       </c>
       <c r="F4">
-        <v>40.14967887415914</v>
+        <v>52.01276830214352</v>
       </c>
       <c r="G4">
-        <v>2.142850542922456</v>
+        <v>3.770194212534101</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.911148242862727</v>
+        <v>10.06454508184396</v>
       </c>
       <c r="K4">
-        <v>17.94175026415973</v>
+        <v>20.23669732772502</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.54470148200653</v>
+        <v>20.40403845406376</v>
       </c>
       <c r="N4">
-        <v>16.31425821821018</v>
+        <v>23.47760922542648</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.55997061590564</v>
+        <v>7.744683016677794</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.858422544728326</v>
+        <v>4.618685722838512</v>
       </c>
       <c r="E5">
-        <v>6.092085586296998</v>
+        <v>10.7369856967952</v>
       </c>
       <c r="F5">
-        <v>39.84391006154831</v>
+        <v>51.98984484057529</v>
       </c>
       <c r="G5">
-        <v>2.145786477893007</v>
+        <v>3.771276333196929</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.916869995149248</v>
+        <v>10.07023957109645</v>
       </c>
       <c r="K5">
-        <v>17.64116854956453</v>
+        <v>20.18974300128392</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.37705594673309</v>
+        <v>20.39299713440176</v>
       </c>
       <c r="N5">
-        <v>16.35802527169262</v>
+        <v>23.49081312914561</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.544515562991352</v>
+        <v>7.742097346482893</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.857091294528628</v>
+        <v>4.618846079368857</v>
       </c>
       <c r="E6">
-        <v>6.090306888978078</v>
+        <v>10.73784980257568</v>
       </c>
       <c r="F6">
-        <v>39.79344875471817</v>
+        <v>51.98621587616562</v>
       </c>
       <c r="G6">
-        <v>2.146276598907111</v>
+        <v>3.771457951903888</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.917854151485185</v>
+        <v>10.07120090974243</v>
       </c>
       <c r="K6">
-        <v>17.59099915919274</v>
+        <v>20.18202642459016</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.34920912859923</v>
+        <v>20.39123538366217</v>
       </c>
       <c r="N6">
-        <v>16.36536208994624</v>
+        <v>23.49303481087407</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.651367914050037</v>
+        <v>7.760197959922473</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.866377257508025</v>
+        <v>4.61775969744898</v>
       </c>
       <c r="E7">
-        <v>6.10289836499943</v>
+        <v>10.73197386411431</v>
       </c>
       <c r="F7">
-        <v>40.14553437592042</v>
+        <v>52.01244725627666</v>
       </c>
       <c r="G7">
-        <v>2.14288996457565</v>
+        <v>3.770208676861066</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.911223114751321</v>
+        <v>10.06462082249546</v>
       </c>
       <c r="K7">
-        <v>17.93771400154901</v>
+        <v>20.23605874220377</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.54244131950727</v>
+        <v>20.40388474762018</v>
       </c>
       <c r="N7">
-        <v>16.31484381249585</v>
+        <v>23.47778534158714</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.11152760820455</v>
+        <v>7.843748562110053</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.908562885922105</v>
+        <v>4.61362434327576</v>
       </c>
       <c r="E8">
-        <v>6.164621301119635</v>
+        <v>10.70905950077474</v>
       </c>
       <c r="F8">
-        <v>41.74363006213729</v>
+        <v>52.15394013798126</v>
       </c>
       <c r="G8">
-        <v>2.128306360497827</v>
+        <v>3.764976073697225</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.887025551683411</v>
+        <v>10.03787517589671</v>
       </c>
       <c r="K8">
-        <v>19.42836514176856</v>
+        <v>20.48580494137037</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.39241039456043</v>
+        <v>20.47007107689674</v>
       </c>
       <c r="N8">
-        <v>16.10217510881734</v>
+        <v>23.41473438329049</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.966200362408257</v>
+        <v>8.019650936809594</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.996558241626698</v>
+        <v>4.607870459805122</v>
       </c>
       <c r="E9">
-        <v>6.308660787386529</v>
+        <v>10.67494474949492</v>
       </c>
       <c r="F9">
-        <v>45.03115818512597</v>
+        <v>52.52319158497544</v>
       </c>
       <c r="G9">
-        <v>2.100804670255532</v>
+        <v>3.755713621067833</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.858952525859618</v>
+        <v>9.993643040003715</v>
       </c>
       <c r="K9">
-        <v>22.27827132859732</v>
+        <v>21.01279975497967</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.03920508538724</v>
+        <v>20.63658269909333</v>
       </c>
       <c r="N9">
-        <v>15.72406691037555</v>
+        <v>23.30633318162118</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.597456321967712</v>
+        <v>8.155149153147294</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.065532126633673</v>
+        <v>4.605069473453852</v>
       </c>
       <c r="E10">
-        <v>6.42938351539056</v>
+        <v>10.65646241772717</v>
       </c>
       <c r="F10">
-        <v>47.53900025398212</v>
+        <v>52.84956307451917</v>
       </c>
       <c r="G10">
-        <v>2.081051212687933</v>
+        <v>3.749509430295144</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.851372710539403</v>
+        <v>9.966138539248067</v>
       </c>
       <c r="K10">
-        <v>24.50029343180421</v>
+        <v>21.41942752657637</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.23131756484441</v>
+        <v>20.78072226447864</v>
       </c>
       <c r="N10">
-        <v>15.47243962952943</v>
+        <v>23.23597884928486</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.914050742128897</v>
+        <v>8.217909934284817</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.098162899195421</v>
+        <v>4.604103015025155</v>
       </c>
       <c r="E11">
-        <v>6.487755660158929</v>
+        <v>10.64947995974926</v>
       </c>
       <c r="F11">
-        <v>48.70098738508977</v>
+        <v>53.00975550474634</v>
       </c>
       <c r="G11">
-        <v>2.072107359179292</v>
+        <v>3.746815785653875</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.851063505884741</v>
+        <v>9.954706871520404</v>
       </c>
       <c r="K11">
-        <v>25.47533391580263</v>
+        <v>21.60791037648869</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.76941907110812</v>
+        <v>20.85088149748173</v>
       </c>
       <c r="N11">
-        <v>15.36433370185878</v>
+        <v>23.20598929959545</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.031683359478663</v>
+        <v>8.241816592297113</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.11073199172206</v>
+        <v>4.603781129416048</v>
       </c>
       <c r="E12">
-        <v>6.510377167211772</v>
+        <v>10.64704048192359</v>
       </c>
       <c r="F12">
-        <v>49.14423200544499</v>
+        <v>53.07207707551071</v>
       </c>
       <c r="G12">
-        <v>2.068721261105053</v>
+        <v>3.74581414586904</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.851426529669554</v>
+        <v>9.950533082950736</v>
       </c>
       <c r="K12">
-        <v>25.83972057395063</v>
+        <v>21.6797260623618</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.02968474929063</v>
+        <v>20.87809465012644</v>
       </c>
       <c r="N12">
-        <v>15.32438223906534</v>
+        <v>23.19492286794269</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.006448518073498</v>
+        <v>8.23666194869176</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.108014983500653</v>
+        <v>4.603848494777592</v>
       </c>
       <c r="E13">
-        <v>6.505481856303749</v>
+        <v>10.64755677169653</v>
       </c>
       <c r="F13">
-        <v>49.04862392777039</v>
+        <v>53.05858161138346</v>
       </c>
       <c r="G13">
-        <v>2.069450576990118</v>
+        <v>3.746029051115884</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.851326501267529</v>
+        <v>9.951425086542441</v>
       </c>
       <c r="K13">
-        <v>25.76145333155128</v>
+        <v>21.66424064377993</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.97230405574902</v>
+        <v>20.87220535062571</v>
       </c>
       <c r="N13">
-        <v>15.33294138285066</v>
+        <v>23.19729332239782</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.923773338728184</v>
+        <v>8.219874052875113</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.09919250092776</v>
+        <v>4.60407565054701</v>
       </c>
       <c r="E14">
-        <v>6.489606250333539</v>
+        <v>10.64927516334672</v>
       </c>
       <c r="F14">
-        <v>48.73738734798822</v>
+        <v>53.01484962239407</v>
       </c>
       <c r="G14">
-        <v>2.071828800871395</v>
+        <v>3.746733012357975</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.851083574017352</v>
+        <v>9.954360383440347</v>
       </c>
       <c r="K14">
-        <v>25.50540732766899</v>
+        <v>21.61381021198816</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.78614677015018</v>
+        <v>20.85310749282847</v>
       </c>
       <c r="N14">
-        <v>15.36102665890002</v>
+        <v>23.20507304511257</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.87284030636329</v>
+        <v>8.209608661493096</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.09381720967069</v>
+        <v>4.604220527329013</v>
       </c>
       <c r="E15">
-        <v>6.479950004386023</v>
+        <v>10.65035436634373</v>
       </c>
       <c r="F15">
-        <v>48.5471730874517</v>
+        <v>52.98827791066959</v>
       </c>
       <c r="G15">
-        <v>2.073285459048769</v>
+        <v>3.747166599716867</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.850998205491662</v>
+        <v>9.956178534745526</v>
       </c>
       <c r="K15">
-        <v>25.34795121671849</v>
+        <v>21.58297572129473</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.69864966952659</v>
+        <v>20.84149309996666</v>
       </c>
       <c r="N15">
-        <v>15.37836042396266</v>
+        <v>23.20987611777209</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.576447801985781</v>
+        <v>8.151068387193549</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.063427484663579</v>
+        <v>4.605138812306804</v>
       </c>
       <c r="E16">
-        <v>6.425639956171586</v>
+        <v>10.65694739060513</v>
       </c>
       <c r="F16">
-        <v>47.46350085555645</v>
+        <v>52.83932790317307</v>
       </c>
       <c r="G16">
-        <v>2.081636123631886</v>
+        <v>3.749688045435761</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.851458467709337</v>
+        <v>9.966907345791116</v>
       </c>
       <c r="K16">
-        <v>24.43587742703565</v>
+        <v>21.40717491255759</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.19606793030586</v>
+        <v>20.77622832187934</v>
       </c>
       <c r="N16">
-        <v>15.4796384109301</v>
+        <v>23.23797930079058</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.390676213413284</v>
+        <v>8.115428403363932</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.045126701152742</v>
+        <v>4.605780851720923</v>
       </c>
       <c r="E17">
-        <v>6.393220970046422</v>
+        <v>10.66135681821611</v>
       </c>
       <c r="F17">
-        <v>46.80422237668678</v>
+        <v>52.75093728822799</v>
       </c>
       <c r="G17">
-        <v>2.086766204800008</v>
+        <v>3.751267742809866</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.852564272066674</v>
+        <v>9.97376565986419</v>
       </c>
       <c r="K17">
-        <v>23.86739075320044</v>
+        <v>21.30018015535631</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.88667823601024</v>
+        <v>20.7373559137258</v>
       </c>
       <c r="N17">
-        <v>15.54344519876737</v>
+        <v>23.25573592037756</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.302117009906787</v>
+        <v>8.095036087923933</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.034716381340952</v>
+        <v>4.606179109598127</v>
       </c>
       <c r="E18">
-        <v>6.374898224535618</v>
+        <v>10.6640271765042</v>
       </c>
       <c r="F18">
-        <v>46.42699791594625</v>
+        <v>52.70120261339166</v>
       </c>
       <c r="G18">
-        <v>2.089721209772955</v>
+        <v>3.752188461288932</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.853493858014446</v>
+        <v>9.977812072851048</v>
       </c>
       <c r="K18">
-        <v>23.53702488011344</v>
+        <v>21.23897337954497</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.70832629808246</v>
+        <v>20.71543045143808</v>
       </c>
       <c r="N18">
-        <v>15.58073892161348</v>
+        <v>23.26613870490418</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.2720071954699</v>
+        <v>8.088150586613118</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.031210628907883</v>
+        <v>4.606318934055428</v>
       </c>
       <c r="E19">
-        <v>6.368749495773432</v>
+        <v>10.66495436743264</v>
       </c>
       <c r="F19">
-        <v>46.29961138751898</v>
+        <v>52.68455388056116</v>
       </c>
       <c r="G19">
-        <v>2.090722615882735</v>
+        <v>3.752502285681582</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.853858191929719</v>
+        <v>9.979199590744749</v>
       </c>
       <c r="K19">
-        <v>23.42457835082147</v>
+        <v>21.21830905241732</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.64787084892253</v>
+        <v>20.70808164796985</v>
       </c>
       <c r="N19">
-        <v>15.59346593707534</v>
+        <v>23.26969347499793</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.41049524292151</v>
+        <v>8.11921143139673</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.047062650709002</v>
+        <v>4.605709508015861</v>
       </c>
       <c r="E20">
-        <v>6.396638376208824</v>
+        <v>10.66087354304825</v>
       </c>
       <c r="F20">
-        <v>46.87419826294764</v>
+        <v>52.76023240744509</v>
       </c>
       <c r="G20">
-        <v>2.086219688247764</v>
+        <v>3.751098327983349</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.852415976867694</v>
+        <v>9.97302505736773</v>
       </c>
       <c r="K20">
-        <v>23.92825565221989</v>
+        <v>21.31153583926026</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.91965458084674</v>
+        <v>20.74144924482459</v>
       </c>
       <c r="N20">
-        <v>15.53659092954327</v>
+        <v>23.25382606878894</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.948117821261924</v>
+        <v>8.224801417658401</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.101777823707575</v>
+        <v>4.604007734022106</v>
       </c>
       <c r="E21">
-        <v>6.494255083983244</v>
+        <v>10.64876487924325</v>
       </c>
       <c r="F21">
-        <v>48.82871559467567</v>
+        <v>53.02764992925796</v>
       </c>
       <c r="G21">
-        <v>2.071130284502184</v>
+        <v>3.746525743852525</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.851141652775465</v>
+        <v>9.953494006874886</v>
       </c>
       <c r="K21">
-        <v>25.58074295966055</v>
+        <v>21.62861137655139</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.83979940740753</v>
+        <v>20.85869960260843</v>
       </c>
       <c r="N21">
-        <v>15.35274994482931</v>
+        <v>23.20278008077157</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.286368562665217</v>
+        <v>8.294619908219317</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.138795606870179</v>
+        <v>4.603152452227944</v>
       </c>
       <c r="E22">
-        <v>6.56108009134972</v>
+        <v>10.64204372277989</v>
       </c>
       <c r="F22">
-        <v>50.12506391830546</v>
+        <v>53.21208574550962</v>
       </c>
       <c r="G22">
-        <v>2.06126982696639</v>
+        <v>3.743644403053371</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.853122979093215</v>
+        <v>9.941633492628201</v>
       </c>
       <c r="K22">
-        <v>26.63270209901708</v>
+        <v>21.83838173388495</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.61077297942511</v>
+        <v>20.93908375046257</v>
       </c>
       <c r="N22">
-        <v>15.23838840235667</v>
+        <v>23.17110879733252</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.107020421320398</v>
+        <v>8.257289303750705</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.118911132897568</v>
+        <v>4.603585475220664</v>
       </c>
       <c r="E23">
-        <v>6.525129739058527</v>
+        <v>10.64552192544898</v>
       </c>
       <c r="F23">
-        <v>49.43135686315935</v>
+        <v>53.11277389262061</v>
       </c>
       <c r="G23">
-        <v>2.066534362873667</v>
+        <v>3.745172467427202</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.851797666433091</v>
+        <v>9.94788100943598</v>
       </c>
       <c r="K23">
-        <v>26.07370474138483</v>
+        <v>21.72621143198055</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.20119798071032</v>
+        <v>20.89584278056583</v>
       </c>
       <c r="N23">
-        <v>15.29886866281327</v>
+        <v>23.18785762773189</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.401482859701332</v>
+        <v>8.117500818886423</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.046187064378856</v>
+        <v>4.605741671724945</v>
       </c>
       <c r="E24">
-        <v>6.395092386098416</v>
+        <v>10.66109161023698</v>
       </c>
       <c r="F24">
-        <v>46.84255655970636</v>
+        <v>52.7560267111029</v>
       </c>
       <c r="G24">
-        <v>2.08646675038202</v>
+        <v>3.751174881391135</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.852482108002045</v>
+        <v>9.973359561433561</v>
       </c>
       <c r="K24">
-        <v>23.90074966542045</v>
+        <v>21.30640097688649</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.90474747065454</v>
+        <v>20.73959733180489</v>
       </c>
       <c r="N24">
-        <v>15.53968784879495</v>
+        <v>23.25468890760811</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.740613042290638</v>
+        <v>7.970884110660904</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.972086070241435</v>
+        <v>4.609175865234634</v>
       </c>
       <c r="E25">
-        <v>6.267145360022995</v>
+        <v>10.68301670771081</v>
       </c>
       <c r="F25">
-        <v>44.1256570886442</v>
+        <v>52.41355195156139</v>
       </c>
       <c r="G25">
-        <v>2.108148104670547</v>
+        <v>3.758113262122814</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.864351991432459</v>
+        <v>10.00473106873429</v>
       </c>
       <c r="K25">
-        <v>21.46635262077885</v>
+        <v>20.86657628550121</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.59656660839549</v>
+        <v>20.5876611483778</v>
       </c>
       <c r="N25">
-        <v>15.82196143705378</v>
+        <v>23.33402732298513</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_203/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.86724192799219</v>
+        <v>7.233183387756757</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.612663642908414</v>
+        <v>1.920315010424039</v>
       </c>
       <c r="E2">
-        <v>10.70358358851053</v>
+        <v>6.182871146372324</v>
       </c>
       <c r="F2">
-        <v>52.19851471137271</v>
+        <v>42.18718199358604</v>
       </c>
       <c r="G2">
-        <v>3.763626178778753</v>
+        <v>2.124436380949024</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.03118505128965</v>
+        <v>5.88173870523673</v>
       </c>
       <c r="K2">
-        <v>20.55611068277238</v>
+        <v>19.8222059150339</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.4905080802847</v>
+        <v>15.62164971912174</v>
       </c>
       <c r="N2">
-        <v>23.3986823768665</v>
+        <v>16.04711146873324</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.800049692867613</v>
+        <v>6.876866839309738</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.615628859511509</v>
+        <v>1.886603939417231</v>
       </c>
       <c r="E3">
-        <v>10.72028624106469</v>
+        <v>6.131664916240109</v>
       </c>
       <c r="F3">
-        <v>52.07622248718422</v>
+        <v>40.91252000623069</v>
       </c>
       <c r="G3">
-        <v>3.76761716080528</v>
+        <v>2.13574888427481</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.05121168611236</v>
+        <v>5.898510400368981</v>
       </c>
       <c r="K3">
-        <v>20.35511994747449</v>
+        <v>18.6685437486253</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.43403655097899</v>
+        <v>14.95547097441559</v>
       </c>
       <c r="N3">
-        <v>23.44639330031144</v>
+        <v>16.20970329504586</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.760411822498218</v>
+        <v>6.652612401091767</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.617747346421424</v>
+        <v>1.866486539098109</v>
       </c>
       <c r="E4">
-        <v>10.73190675883346</v>
+        <v>6.103049030412907</v>
       </c>
       <c r="F4">
-        <v>52.01276830214352</v>
+        <v>40.14967887415904</v>
       </c>
       <c r="G4">
-        <v>3.770194212534101</v>
+        <v>2.14285054292259</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.06454508184396</v>
+        <v>5.911148242862615</v>
       </c>
       <c r="K4">
-        <v>20.23669732772502</v>
+        <v>17.94175026415975</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.40403845406376</v>
+        <v>14.54470148200651</v>
       </c>
       <c r="N4">
-        <v>23.47760922542648</v>
+        <v>16.31425821821009</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.744683016677794</v>
+        <v>6.559970615905604</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.618685722838512</v>
+        <v>1.858422544728453</v>
       </c>
       <c r="E5">
-        <v>10.7369856967952</v>
+        <v>6.092085586296989</v>
       </c>
       <c r="F5">
-        <v>51.98984484057529</v>
+        <v>39.84391006154858</v>
       </c>
       <c r="G5">
-        <v>3.771276333196929</v>
+        <v>2.14578647789327</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.07023957109645</v>
+        <v>5.91686999514928</v>
       </c>
       <c r="K5">
-        <v>20.18974300128392</v>
+        <v>17.64116854956456</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.39299713440176</v>
+        <v>14.37705594673312</v>
       </c>
       <c r="N5">
-        <v>23.49081312914561</v>
+        <v>16.35802527169275</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.742097346482893</v>
+        <v>6.544515562991298</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.618846079368857</v>
+        <v>1.857091294528564</v>
       </c>
       <c r="E6">
-        <v>10.73784980257568</v>
+        <v>6.090306888977914</v>
       </c>
       <c r="F6">
-        <v>51.98621587616562</v>
+        <v>39.79344875471802</v>
       </c>
       <c r="G6">
-        <v>3.771457951903888</v>
+        <v>2.146276598906844</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.07120090974243</v>
+        <v>5.917854151485066</v>
       </c>
       <c r="K6">
-        <v>20.18202642459016</v>
+        <v>17.59099915919274</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.39123538366217</v>
+        <v>14.34920912859921</v>
       </c>
       <c r="N6">
-        <v>23.49303481087407</v>
+        <v>16.36536208994617</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.760197959922473</v>
+        <v>6.651367914050073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.61775969744898</v>
+        <v>1.866377257507961</v>
       </c>
       <c r="E7">
-        <v>10.73197386411431</v>
+        <v>6.102898364999429</v>
       </c>
       <c r="F7">
-        <v>52.01244725627666</v>
+        <v>40.14553437592042</v>
       </c>
       <c r="G7">
-        <v>3.770208676861066</v>
+        <v>2.142889964575381</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.06462082249546</v>
+        <v>5.911223114751323</v>
       </c>
       <c r="K7">
-        <v>20.23605874220377</v>
+        <v>17.93771400154902</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.40388474762018</v>
+        <v>14.54244131950727</v>
       </c>
       <c r="N7">
-        <v>23.47778534158714</v>
+        <v>16.31484381249586</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.843748562110053</v>
+        <v>7.111527608204512</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.61362434327576</v>
+        <v>1.9085628859223</v>
       </c>
       <c r="E8">
-        <v>10.70905950077474</v>
+        <v>6.164621301119531</v>
       </c>
       <c r="F8">
-        <v>52.15394013798126</v>
+        <v>41.74363006213731</v>
       </c>
       <c r="G8">
-        <v>3.764976073697225</v>
+        <v>2.128306360497827</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.03787517589671</v>
+        <v>5.887025551683323</v>
       </c>
       <c r="K8">
-        <v>20.48580494137037</v>
+        <v>19.42836514176854</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.47007107689674</v>
+        <v>15.3924103945604</v>
       </c>
       <c r="N8">
-        <v>23.41473438329049</v>
+        <v>16.1021751088174</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.019650936809594</v>
+        <v>7.966200362408268</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.607870459805122</v>
+        <v>1.996558241626704</v>
       </c>
       <c r="E9">
-        <v>10.67494474949492</v>
+        <v>6.308660787386581</v>
       </c>
       <c r="F9">
-        <v>52.52319158497544</v>
+        <v>45.031158185126</v>
       </c>
       <c r="G9">
-        <v>3.755713621067833</v>
+        <v>2.100804670255266</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.993643040003715</v>
+        <v>5.858952525859676</v>
       </c>
       <c r="K9">
-        <v>21.01279975497967</v>
+        <v>22.27827132859731</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.63658269909333</v>
+        <v>17.03920508538726</v>
       </c>
       <c r="N9">
-        <v>23.30633318162118</v>
+        <v>15.72406691037557</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.155149153147294</v>
+        <v>8.59745632196771</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.605069473453852</v>
+        <v>2.065532126633298</v>
       </c>
       <c r="E10">
-        <v>10.65646241772717</v>
+        <v>6.429383515390391</v>
       </c>
       <c r="F10">
-        <v>52.84956307451917</v>
+        <v>47.53900025398207</v>
       </c>
       <c r="G10">
-        <v>3.749509430295144</v>
+        <v>2.081051212687929</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.966138539248067</v>
+        <v>5.851372710539406</v>
       </c>
       <c r="K10">
-        <v>21.41942752657637</v>
+        <v>24.50029343180424</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.78072226447864</v>
+        <v>18.2313175648444</v>
       </c>
       <c r="N10">
-        <v>23.23597884928486</v>
+        <v>15.47243962952943</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.217909934284817</v>
+        <v>8.914050742128889</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.604103015025155</v>
+        <v>2.098162899195557</v>
       </c>
       <c r="E11">
-        <v>10.64947995974926</v>
+        <v>6.48775566015898</v>
       </c>
       <c r="F11">
-        <v>53.00975550474634</v>
+        <v>48.70098738508984</v>
       </c>
       <c r="G11">
-        <v>3.746815785653875</v>
+        <v>2.072107359179422</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.954706871520404</v>
+        <v>5.851063505884684</v>
       </c>
       <c r="K11">
-        <v>21.60791037648869</v>
+        <v>25.47533391580263</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.85088149748173</v>
+        <v>18.76941907110812</v>
       </c>
       <c r="N11">
-        <v>23.20598929959545</v>
+        <v>15.36433370185879</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.241816592297113</v>
+        <v>9.031683359478645</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.603781129416048</v>
+        <v>2.110731991722053</v>
       </c>
       <c r="E12">
-        <v>10.64704048192359</v>
+        <v>6.510377167211831</v>
       </c>
       <c r="F12">
-        <v>53.07207707551071</v>
+        <v>49.144232005445</v>
       </c>
       <c r="G12">
-        <v>3.74581414586904</v>
+        <v>2.068721261105186</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.950533082950736</v>
+        <v>5.85142652966957</v>
       </c>
       <c r="K12">
-        <v>21.6797260623618</v>
+        <v>25.8397205739507</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.87809465012644</v>
+        <v>19.02968474929066</v>
       </c>
       <c r="N12">
-        <v>23.19492286794269</v>
+        <v>15.32438223906533</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.23666194869176</v>
+        <v>9.006448518073471</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.603848494777592</v>
+        <v>2.10801498350066</v>
       </c>
       <c r="E13">
-        <v>10.64755677169653</v>
+        <v>6.505481856303779</v>
       </c>
       <c r="F13">
-        <v>53.05858161138346</v>
+        <v>49.04862392777047</v>
       </c>
       <c r="G13">
-        <v>3.746029051115884</v>
+        <v>2.069450576989855</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.951425086542441</v>
+        <v>5.8513265012676</v>
       </c>
       <c r="K13">
-        <v>21.66424064377993</v>
+        <v>25.76145333155128</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.87220535062571</v>
+        <v>18.97230405574899</v>
       </c>
       <c r="N13">
-        <v>23.19729332239782</v>
+        <v>15.33294138285075</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.219874052875113</v>
+        <v>8.923773338728166</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.60407565054701</v>
+        <v>2.099192500927578</v>
       </c>
       <c r="E14">
-        <v>10.64927516334672</v>
+        <v>6.489606250333503</v>
       </c>
       <c r="F14">
-        <v>53.01484962239407</v>
+        <v>48.73738734798816</v>
       </c>
       <c r="G14">
-        <v>3.746733012357975</v>
+        <v>2.071828800871663</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.954360383440347</v>
+        <v>5.851083574017411</v>
       </c>
       <c r="K14">
-        <v>21.61381021198816</v>
+        <v>25.50540732766903</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.85310749282847</v>
+        <v>18.78614677015017</v>
       </c>
       <c r="N14">
-        <v>23.20507304511257</v>
+        <v>15.36102665889995</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.209608661493096</v>
+        <v>8.872840306363287</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.604220527329013</v>
+        <v>2.093817209670812</v>
       </c>
       <c r="E15">
-        <v>10.65035436634373</v>
+        <v>6.479950004386067</v>
       </c>
       <c r="F15">
-        <v>52.98827791066959</v>
+        <v>48.54717308745174</v>
       </c>
       <c r="G15">
-        <v>3.747166599716867</v>
+        <v>2.073285459048772</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.956178534745526</v>
+        <v>5.850998205491615</v>
       </c>
       <c r="K15">
-        <v>21.58297572129473</v>
+        <v>25.34795121671855</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.84149309996666</v>
+        <v>18.69864966952659</v>
       </c>
       <c r="N15">
-        <v>23.20987611777209</v>
+        <v>15.37836042396269</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.151068387193549</v>
+        <v>8.576447801985761</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.605138812306804</v>
+        <v>2.063427484663555</v>
       </c>
       <c r="E16">
-        <v>10.65694739060513</v>
+        <v>6.425639956171544</v>
       </c>
       <c r="F16">
-        <v>52.83932790317307</v>
+        <v>47.46350085555644</v>
       </c>
       <c r="G16">
-        <v>3.749688045435761</v>
+        <v>2.081636123631886</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.966907345791116</v>
+        <v>5.851458467709294</v>
       </c>
       <c r="K16">
-        <v>21.40717491255759</v>
+        <v>24.43587742703562</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.77622832187934</v>
+        <v>18.19606793030585</v>
       </c>
       <c r="N16">
-        <v>23.23797930079058</v>
+        <v>15.47963841093013</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.115428403363932</v>
+        <v>8.390676213413267</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.605780851720923</v>
+        <v>2.045126701152748</v>
       </c>
       <c r="E17">
-        <v>10.66135681821611</v>
+        <v>6.393220970046396</v>
       </c>
       <c r="F17">
-        <v>52.75093728822799</v>
+        <v>46.80422237668682</v>
       </c>
       <c r="G17">
-        <v>3.751267742809866</v>
+        <v>2.086766204799746</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.97376565986419</v>
+        <v>5.852564272066654</v>
       </c>
       <c r="K17">
-        <v>21.30018015535631</v>
+        <v>23.86739075320039</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.7373559137258</v>
+        <v>17.88667823601024</v>
       </c>
       <c r="N17">
-        <v>23.25573592037756</v>
+        <v>15.54344519876739</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.095036087923933</v>
+        <v>8.302117009906771</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.606179109598127</v>
+        <v>2.034716381340955</v>
       </c>
       <c r="E18">
-        <v>10.6640271765042</v>
+        <v>6.374898224535578</v>
       </c>
       <c r="F18">
-        <v>52.70120261339166</v>
+        <v>46.42699791594628</v>
       </c>
       <c r="G18">
-        <v>3.752188461288932</v>
+        <v>2.089721209773086</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.977812072851048</v>
+        <v>5.853493858014416</v>
       </c>
       <c r="K18">
-        <v>21.23897337954497</v>
+        <v>23.53702488011346</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.71543045143808</v>
+        <v>17.70832629808245</v>
       </c>
       <c r="N18">
-        <v>23.26613870490418</v>
+        <v>15.58073892161349</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.088150586613118</v>
+        <v>8.272007195469929</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.606318934055428</v>
+        <v>2.031210628907634</v>
       </c>
       <c r="E19">
-        <v>10.66495436743264</v>
+        <v>6.368749495773295</v>
       </c>
       <c r="F19">
-        <v>52.68455388056116</v>
+        <v>46.29961138751887</v>
       </c>
       <c r="G19">
-        <v>3.752502285681582</v>
+        <v>2.090722615882733</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.979199590744749</v>
+        <v>5.853858191929665</v>
       </c>
       <c r="K19">
-        <v>21.21830905241732</v>
+        <v>23.42457835082152</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.70808164796985</v>
+        <v>17.6478708489225</v>
       </c>
       <c r="N19">
-        <v>23.26969347499793</v>
+        <v>15.59346593707519</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.11921143139673</v>
+        <v>8.410495242921517</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.605709508015861</v>
+        <v>2.047062650709129</v>
       </c>
       <c r="E20">
-        <v>10.66087354304825</v>
+        <v>6.396638376208869</v>
       </c>
       <c r="F20">
-        <v>52.76023240744509</v>
+        <v>46.87419826294764</v>
       </c>
       <c r="G20">
-        <v>3.751098327983349</v>
+        <v>2.086219688247631</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.97302505736773</v>
+        <v>5.85241597686769</v>
       </c>
       <c r="K20">
-        <v>21.31153583926026</v>
+        <v>23.92825565221988</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.74144924482459</v>
+        <v>17.91965458084674</v>
       </c>
       <c r="N20">
-        <v>23.25382606878894</v>
+        <v>15.53659092954315</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.224801417658401</v>
+        <v>8.948117821261928</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.604007734022106</v>
+        <v>2.101777823707521</v>
       </c>
       <c r="E21">
-        <v>10.64876487924325</v>
+        <v>6.494255083983336</v>
       </c>
       <c r="F21">
-        <v>53.02764992925796</v>
+        <v>48.82871559467572</v>
       </c>
       <c r="G21">
-        <v>3.746525743852525</v>
+        <v>2.071130284502182</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.953494006874886</v>
+        <v>5.851141652775524</v>
       </c>
       <c r="K21">
-        <v>21.62861137655139</v>
+        <v>25.58074295966051</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.85869960260843</v>
+        <v>18.83979940740749</v>
       </c>
       <c r="N21">
-        <v>23.20278008077157</v>
+        <v>15.35274994482931</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.294619908219317</v>
+        <v>9.286368562665261</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.603152452227944</v>
+        <v>2.138795606870232</v>
       </c>
       <c r="E22">
-        <v>10.64204372277989</v>
+        <v>6.561080091349708</v>
       </c>
       <c r="F22">
-        <v>53.21208574550962</v>
+        <v>50.12506391830546</v>
       </c>
       <c r="G22">
-        <v>3.743644403053371</v>
+        <v>2.061269826966518</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.941633492628201</v>
+        <v>5.853122979093243</v>
       </c>
       <c r="K22">
-        <v>21.83838173388495</v>
+        <v>26.63270209901719</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.93908375046257</v>
+        <v>19.61077297942516</v>
       </c>
       <c r="N22">
-        <v>23.17110879733252</v>
+        <v>15.23838840235666</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.257289303750705</v>
+        <v>9.107020421320343</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.603585475220664</v>
+        <v>2.118911132897567</v>
       </c>
       <c r="E23">
-        <v>10.64552192544898</v>
+        <v>6.525129739058505</v>
       </c>
       <c r="F23">
-        <v>53.11277389262061</v>
+        <v>49.43135686315935</v>
       </c>
       <c r="G23">
-        <v>3.745172467427202</v>
+        <v>2.066534362873672</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.94788100943598</v>
+        <v>5.851797666433053</v>
       </c>
       <c r="K23">
-        <v>21.72621143198055</v>
+        <v>26.07370474138481</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.89584278056583</v>
+        <v>19.20119798071034</v>
       </c>
       <c r="N23">
-        <v>23.18785762773189</v>
+        <v>15.29886866281335</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.117500818886423</v>
+        <v>8.401482859701224</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.605741671724945</v>
+        <v>2.046187064378802</v>
       </c>
       <c r="E24">
-        <v>10.66109161023698</v>
+        <v>6.395092386098334</v>
       </c>
       <c r="F24">
-        <v>52.7560267111029</v>
+        <v>46.84255655970635</v>
       </c>
       <c r="G24">
-        <v>3.751174881391135</v>
+        <v>2.086466750381889</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.973359561433561</v>
+        <v>5.85248210800197</v>
       </c>
       <c r="K24">
-        <v>21.30640097688649</v>
+        <v>23.90074966542054</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.73959733180489</v>
+        <v>17.90474747065452</v>
       </c>
       <c r="N24">
-        <v>23.25468890760811</v>
+        <v>15.53968784879486</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.970884110660904</v>
+        <v>7.740613042290652</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.609175865234634</v>
+        <v>1.972086070241382</v>
       </c>
       <c r="E25">
-        <v>10.68301670771081</v>
+        <v>6.267145360023001</v>
       </c>
       <c r="F25">
-        <v>52.41355195156139</v>
+        <v>44.12565708864405</v>
       </c>
       <c r="G25">
-        <v>3.758113262122814</v>
+        <v>2.108148104670151</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.00473106873429</v>
+        <v>5.864351991432507</v>
       </c>
       <c r="K25">
-        <v>20.86657628550121</v>
+        <v>21.46635262077886</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.5876611483778</v>
+        <v>16.59656660839545</v>
       </c>
       <c r="N25">
-        <v>23.33402732298513</v>
+        <v>15.82196143705373</v>
       </c>
       <c r="O25">
         <v>0</v>
